--- a/medicine/Pharmacie/Classe_ATC_J02/Classe_ATC_J02.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_J02/Classe_ATC_J02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une section du Code ATC.
 J Anti-infectieux systémiques
@@ -514,21 +526,128 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>J02AA Antibiotiques
-J02AA01 Amphotéricine B
-J02AA02 Hachimycine
-J02AB Dérivés Imidazoles
-J02AB01 Miconazole
+          <t>J02AA Antibiotiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>J02AA01 Amphotéricine B
+J02AA02 Hachimycine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>J02A Anti-mycotiques systémiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>J02AB Dérivés Imidazoles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>J02AB01 Miconazole
 J02AB02 Kétoconazole
-QJ02AB90 Clotrimazole
-J02AC Dérivés Triazoles
-J02AC01 Fluconazole
+QJ02AB90 Clotrimazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>J02A Anti-mycotiques systémiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>J02AC Dérivés Triazoles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>J02AC01 Fluconazole
 J02AC02 Itraconazole
 J02AC03 Voriconazole
 J02AC04 Posaconazole
-J02AC05 Isavuconazole
-J02AX Autres anti-mycotiques systémiques
-J02AX01 Flucytosine
+J02AC05 Isavuconazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>J02A Anti-mycotiques systémiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>J02AX Autres anti-mycotiques systémiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>J02AX01 Flucytosine
 J02AX04 Caspofungine
 J02AX05 Micafungine
 J02AX06 Anidulafungine</t>
